--- a/bids.xlsx
+++ b/bids.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lbellomi\PycharmProjects\pythonProject\Trader\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0369C1F5-5637-4837-A81B-7479537024FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E2A434C-0D41-4DD9-88A8-E5CC7FC5D1D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37350" yWindow="1545" windowWidth="22110" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37590" yWindow="1305" windowWidth="22110" windowHeight="17190" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NORD-1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="414" uniqueCount="7">
   <si>
     <t>BUY</t>
   </si>
@@ -379,10 +379,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -411,91 +411,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>73</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>74</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>76</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>77</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -503,10 +418,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14271D08-834A-491E-B20D-A42BE47CA6B5}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26:I27"/>
+      <selection activeCell="O33" sqref="O33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -539,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>101.01</v>
       </c>
       <c r="D2">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -556,13 +471,13 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>81</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>107.88</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -573,13 +488,13 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>82</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>100.9</v>
       </c>
       <c r="D4">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -590,13 +505,13 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>83</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>2</v>
+        <v>85.72</v>
       </c>
       <c r="D5">
-        <v>0.2</v>
+        <v>0.1</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -607,15 +522,1562 @@
         <v>0</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>91.81</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>87.11</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>83.54</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>83.18</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>83.18</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>83.18</v>
+      </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>83.18</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>90.96</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>90.96</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>89.76</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>88</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>85.02</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>85.02</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>85.02</v>
+      </c>
+      <c r="D20">
+        <v>0.1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>85.02</v>
+      </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>85.74</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>86.32</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>88.36</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>86.86</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>72.8</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>91.32</v>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>106</v>
+      </c>
+      <c r="D28">
+        <v>0.1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>113.93</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>96.22</v>
+      </c>
+      <c r="D30">
+        <v>0.1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>109.5</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>110.22</v>
+      </c>
+      <c r="D32">
+        <v>0.1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>110.22</v>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>115.9</v>
+      </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>113.02</v>
+      </c>
+      <c r="D35">
+        <v>0.1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>110.54</v>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>103.01</v>
+      </c>
+      <c r="D37">
+        <v>0.1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>117.85</v>
+      </c>
+      <c r="D38">
+        <v>0.1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>110.27</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>105.22</v>
+      </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>92.9</v>
+      </c>
+      <c r="D41">
+        <v>0.1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>116</v>
+      </c>
+      <c r="D42">
+        <v>0.1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>116</v>
+      </c>
+      <c r="D43">
+        <v>0.1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>104</v>
+      </c>
+      <c r="D44">
+        <v>0.1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>88.03</v>
+      </c>
+      <c r="D45">
+        <v>0.1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>100</v>
+      </c>
+      <c r="D46">
+        <v>0.1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>96</v>
+      </c>
+      <c r="D47">
+        <v>0.1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>87.66</v>
+      </c>
+      <c r="D48">
+        <v>0.1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>75.69</v>
+      </c>
+      <c r="D49">
+        <v>0.1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>85.55</v>
+      </c>
+      <c r="D50">
+        <v>0.1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>82.72</v>
+      </c>
+      <c r="D51">
+        <v>0.1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>76.900000000000006</v>
+      </c>
+      <c r="D52">
+        <v>0.1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>73.53</v>
+      </c>
+      <c r="D53">
+        <v>0.1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>79.72</v>
+      </c>
+      <c r="D54">
+        <v>0.1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>79.91</v>
+      </c>
+      <c r="D55">
+        <v>0.1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>80.510000000000005</v>
+      </c>
+      <c r="D56">
+        <v>0.1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>80.47</v>
+      </c>
+      <c r="D57">
+        <v>0.1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>84.61</v>
+      </c>
+      <c r="D58">
+        <v>0.1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>84.61</v>
+      </c>
+      <c r="D59">
+        <v>0.1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>84.61</v>
+      </c>
+      <c r="D60">
+        <v>0.1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>84.61</v>
+      </c>
+      <c r="D61">
+        <v>0.1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>72.900000000000006</v>
+      </c>
+      <c r="D62">
+        <v>0.1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>71.8</v>
+      </c>
+      <c r="D63">
+        <v>0.1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>76.52</v>
+      </c>
+      <c r="D64">
+        <v>0.1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>80.760000000000005</v>
+      </c>
+      <c r="D65">
+        <v>0.1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>73</v>
+      </c>
+      <c r="D66">
+        <v>0.1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>76.319999999999993</v>
+      </c>
+      <c r="D67">
+        <v>0.1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>88</v>
+      </c>
+      <c r="D68">
+        <v>0.1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>91</v>
+      </c>
+      <c r="D69">
+        <v>0.1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>86</v>
+      </c>
+      <c r="D70">
+        <v>0.1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>92.87</v>
+      </c>
+      <c r="D71">
+        <v>0.1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>97.82</v>
+      </c>
+      <c r="D72">
+        <v>0.1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>98.1</v>
+      </c>
+      <c r="D73">
+        <v>0.1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>90.22</v>
+      </c>
+      <c r="D74">
+        <v>0.1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>97.22</v>
+      </c>
+      <c r="D75">
+        <v>0.1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>111.59</v>
+      </c>
+      <c r="D76">
+        <v>0.1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>121</v>
+      </c>
+      <c r="D77">
+        <v>0.1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>122.03</v>
+      </c>
+      <c r="D78">
+        <v>0.1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>141.79</v>
+      </c>
+      <c r="D79">
+        <v>0.1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="D80">
+        <v>0.1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>163.80000000000001</v>
+      </c>
+      <c r="D81">
+        <v>0.1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>138.29</v>
+      </c>
+      <c r="D82">
+        <v>0.1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>116</v>
+      </c>
+      <c r="D83">
+        <v>0.1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>116</v>
+      </c>
+      <c r="D84">
+        <v>0.1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
         <v>84</v>
       </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>0.2</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C85">
+        <v>112.02</v>
+      </c>
+      <c r="D85">
+        <v>0.1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>119.37</v>
+      </c>
+      <c r="D86">
+        <v>0.1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>111</v>
+      </c>
+      <c r="D87">
+        <v>0.1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>90.92</v>
+      </c>
+      <c r="D88">
+        <v>0.1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>85.36</v>
+      </c>
+      <c r="D89">
+        <v>0.1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>96</v>
+      </c>
+      <c r="D90">
+        <v>0.1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>96</v>
+      </c>
+      <c r="D91">
+        <v>0.1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>91.82</v>
+      </c>
+      <c r="D92">
+        <v>0.1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>90.94</v>
+      </c>
+      <c r="D93">
+        <v>0.1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94">
+        <v>93</v>
+      </c>
+      <c r="C94">
+        <v>101</v>
+      </c>
+      <c r="D94">
+        <v>0.1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>97</v>
+      </c>
+      <c r="D95">
+        <v>0.1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>90.96</v>
+      </c>
+      <c r="D96">
+        <v>0.1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>87.74</v>
+      </c>
+      <c r="D97">
+        <v>0.1</v>
+      </c>
+      <c r="E97" t="s">
         <v>6</v>
       </c>
     </row>
@@ -626,10 +2088,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{192FA750-4C8D-4BB3-9503-100480365009}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -662,13 +2124,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>96.01</v>
       </c>
       <c r="D2">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E2" t="s">
         <v>6</v>
@@ -679,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="B3">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>102.88</v>
       </c>
       <c r="D3">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E3" t="s">
         <v>6</v>
@@ -696,13 +2158,13 @@
         <v>0</v>
       </c>
       <c r="B4">
-        <v>91</v>
+        <v>3</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>95.9</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E4" t="s">
         <v>6</v>
@@ -713,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="B5">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>80.72</v>
       </c>
       <c r="D5">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="E5" t="s">
         <v>6</v>
@@ -730,15 +2192,1562 @@
         <v>0</v>
       </c>
       <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>86.81</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7">
+        <v>6</v>
+      </c>
+      <c r="C7">
+        <v>83</v>
+      </c>
+      <c r="D7">
+        <v>0.1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>82.11</v>
+      </c>
+      <c r="D8">
+        <v>0.1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>78.540000000000006</v>
+      </c>
+      <c r="D9">
+        <v>0.1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="D10">
+        <v>0.1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11">
+        <v>10</v>
+      </c>
+      <c r="C11">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="D11">
+        <v>0.1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="D12">
+        <v>0.1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>78.180000000000007</v>
+      </c>
+      <c r="D13">
+        <v>0.1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>85.96</v>
+      </c>
+      <c r="D14">
+        <v>0.1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>85.96</v>
+      </c>
+      <c r="D15">
+        <v>0.1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>84.76</v>
+      </c>
+      <c r="D16">
+        <v>0.1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>83</v>
+      </c>
+      <c r="D17">
+        <v>0.1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18">
+        <v>17</v>
+      </c>
+      <c r="C18">
+        <v>80.02</v>
+      </c>
+      <c r="D18">
+        <v>0.1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>80.02</v>
+      </c>
+      <c r="D19">
+        <v>0.1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20">
+        <v>80.02</v>
+      </c>
+      <c r="D20">
+        <v>0.1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21">
+        <v>20</v>
+      </c>
+      <c r="C21">
+        <v>80.02</v>
+      </c>
+      <c r="D21">
+        <v>0.1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>21</v>
+      </c>
+      <c r="C22">
+        <v>80.739999999999995</v>
+      </c>
+      <c r="D22">
+        <v>0.1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B23">
+        <v>22</v>
+      </c>
+      <c r="C23">
+        <v>81.319999999999993</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24">
+        <v>23</v>
+      </c>
+      <c r="C24">
+        <v>83.36</v>
+      </c>
+      <c r="D24">
+        <v>0.1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>24</v>
+      </c>
+      <c r="C25">
+        <v>81.86</v>
+      </c>
+      <c r="D25">
+        <v>0.1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26">
+        <v>25</v>
+      </c>
+      <c r="C26">
+        <v>67.8</v>
+      </c>
+      <c r="D26">
+        <v>0.1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B27">
+        <v>26</v>
+      </c>
+      <c r="C27">
+        <v>86.32</v>
+      </c>
+      <c r="D27">
+        <v>0.1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28">
+        <v>27</v>
+      </c>
+      <c r="C28">
+        <v>101</v>
+      </c>
+      <c r="D28">
+        <v>0.1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>28</v>
+      </c>
+      <c r="C29">
+        <v>108.93</v>
+      </c>
+      <c r="D29">
+        <v>0.1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30">
+        <v>29</v>
+      </c>
+      <c r="C30">
+        <v>91.22</v>
+      </c>
+      <c r="D30">
+        <v>0.1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31">
+        <v>30</v>
+      </c>
+      <c r="C31">
+        <v>104.5</v>
+      </c>
+      <c r="D31">
+        <v>0.1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>105.22</v>
+      </c>
+      <c r="D32">
+        <v>0.1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>32</v>
+      </c>
+      <c r="C33">
+        <v>105.22</v>
+      </c>
+      <c r="D33">
+        <v>0.1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34">
+        <v>33</v>
+      </c>
+      <c r="C34">
+        <v>110.9</v>
+      </c>
+      <c r="D34">
+        <v>0.1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35">
+        <v>34</v>
+      </c>
+      <c r="C35">
+        <v>108.02</v>
+      </c>
+      <c r="D35">
+        <v>0.1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36">
+        <v>35</v>
+      </c>
+      <c r="C36">
+        <v>105.54</v>
+      </c>
+      <c r="D36">
+        <v>0.1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="B37">
+        <v>36</v>
+      </c>
+      <c r="C37">
+        <v>98.01</v>
+      </c>
+      <c r="D37">
+        <v>0.1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38">
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>112.85</v>
+      </c>
+      <c r="D38">
+        <v>0.1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39">
+        <v>38</v>
+      </c>
+      <c r="C39">
+        <v>105.27</v>
+      </c>
+      <c r="D39">
+        <v>0.1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B40">
+        <v>39</v>
+      </c>
+      <c r="C40">
+        <v>100.22</v>
+      </c>
+      <c r="D40">
+        <v>0.1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41">
+        <v>40</v>
+      </c>
+      <c r="C41">
+        <v>87.9</v>
+      </c>
+      <c r="D41">
+        <v>0.1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>0</v>
+      </c>
+      <c r="B42">
+        <v>41</v>
+      </c>
+      <c r="C42">
+        <v>111</v>
+      </c>
+      <c r="D42">
+        <v>0.1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43">
+        <v>42</v>
+      </c>
+      <c r="C43">
+        <v>111</v>
+      </c>
+      <c r="D43">
+        <v>0.1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B44">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>99</v>
+      </c>
+      <c r="D44">
+        <v>0.1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>0</v>
+      </c>
+      <c r="B45">
+        <v>44</v>
+      </c>
+      <c r="C45">
+        <v>83.03</v>
+      </c>
+      <c r="D45">
+        <v>0.1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B46">
+        <v>45</v>
+      </c>
+      <c r="C46">
+        <v>95</v>
+      </c>
+      <c r="D46">
+        <v>0.1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47">
+        <v>46</v>
+      </c>
+      <c r="C47">
+        <v>91</v>
+      </c>
+      <c r="D47">
+        <v>0.1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48">
+        <v>47</v>
+      </c>
+      <c r="C48">
+        <v>82.66</v>
+      </c>
+      <c r="D48">
+        <v>0.1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49">
+        <v>48</v>
+      </c>
+      <c r="C49">
+        <v>70.69</v>
+      </c>
+      <c r="D49">
+        <v>0.1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>0</v>
+      </c>
+      <c r="B50">
+        <v>49</v>
+      </c>
+      <c r="C50">
+        <v>80.55</v>
+      </c>
+      <c r="D50">
+        <v>0.1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>0</v>
+      </c>
+      <c r="B51">
+        <v>50</v>
+      </c>
+      <c r="C51">
+        <v>77.72</v>
+      </c>
+      <c r="D51">
+        <v>0.1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B52">
+        <v>51</v>
+      </c>
+      <c r="C52">
+        <v>71.900000000000006</v>
+      </c>
+      <c r="D52">
+        <v>0.1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>0</v>
+      </c>
+      <c r="B53">
+        <v>52</v>
+      </c>
+      <c r="C53">
+        <v>68.53</v>
+      </c>
+      <c r="D53">
+        <v>0.1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>0</v>
+      </c>
+      <c r="B54">
+        <v>53</v>
+      </c>
+      <c r="C54">
+        <v>74.72</v>
+      </c>
+      <c r="D54">
+        <v>0.1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55">
+        <v>54</v>
+      </c>
+      <c r="C55">
+        <v>74.91</v>
+      </c>
+      <c r="D55">
+        <v>0.1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>0</v>
+      </c>
+      <c r="B56">
+        <v>55</v>
+      </c>
+      <c r="C56">
+        <v>75.510000000000005</v>
+      </c>
+      <c r="D56">
+        <v>0.1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B57">
+        <v>56</v>
+      </c>
+      <c r="C57">
+        <v>75.47</v>
+      </c>
+      <c r="D57">
+        <v>0.1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>0</v>
+      </c>
+      <c r="B58">
+        <v>57</v>
+      </c>
+      <c r="C58">
+        <v>79.61</v>
+      </c>
+      <c r="D58">
+        <v>0.1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59">
+        <v>58</v>
+      </c>
+      <c r="C59">
+        <v>79.61</v>
+      </c>
+      <c r="D59">
+        <v>0.1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B60">
+        <v>59</v>
+      </c>
+      <c r="C60">
+        <v>79.61</v>
+      </c>
+      <c r="D60">
+        <v>0.1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>0</v>
+      </c>
+      <c r="B61">
+        <v>60</v>
+      </c>
+      <c r="C61">
+        <v>79.61</v>
+      </c>
+      <c r="D61">
+        <v>0.1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62">
+        <v>61</v>
+      </c>
+      <c r="C62">
+        <v>67.900000000000006</v>
+      </c>
+      <c r="D62">
+        <v>0.1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63">
+        <v>62</v>
+      </c>
+      <c r="C63">
+        <v>66.8</v>
+      </c>
+      <c r="D63">
+        <v>0.1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64">
+        <v>63</v>
+      </c>
+      <c r="C64">
+        <v>71.52</v>
+      </c>
+      <c r="D64">
+        <v>0.1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65">
+        <v>64</v>
+      </c>
+      <c r="C65">
+        <v>75.760000000000005</v>
+      </c>
+      <c r="D65">
+        <v>0.1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66">
+        <v>65</v>
+      </c>
+      <c r="C66">
+        <v>68</v>
+      </c>
+      <c r="D66">
+        <v>0.1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67">
+        <v>66</v>
+      </c>
+      <c r="C67">
+        <v>71.319999999999993</v>
+      </c>
+      <c r="D67">
+        <v>0.1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68">
+        <v>67</v>
+      </c>
+      <c r="C68">
+        <v>83</v>
+      </c>
+      <c r="D68">
+        <v>0.1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>0</v>
+      </c>
+      <c r="B69">
+        <v>68</v>
+      </c>
+      <c r="C69">
+        <v>86</v>
+      </c>
+      <c r="D69">
+        <v>0.1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70">
+        <v>69</v>
+      </c>
+      <c r="C70">
+        <v>81</v>
+      </c>
+      <c r="D70">
+        <v>0.1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>0</v>
+      </c>
+      <c r="B71">
+        <v>70</v>
+      </c>
+      <c r="C71">
+        <v>87.87</v>
+      </c>
+      <c r="D71">
+        <v>0.1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>0</v>
+      </c>
+      <c r="B72">
+        <v>71</v>
+      </c>
+      <c r="C72">
+        <v>92.82</v>
+      </c>
+      <c r="D72">
+        <v>0.1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>0</v>
+      </c>
+      <c r="B73">
+        <v>72</v>
+      </c>
+      <c r="C73">
+        <v>93.1</v>
+      </c>
+      <c r="D73">
+        <v>0.1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>0</v>
+      </c>
+      <c r="B74">
+        <v>73</v>
+      </c>
+      <c r="C74">
+        <v>85.22</v>
+      </c>
+      <c r="D74">
+        <v>0.1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>0</v>
+      </c>
+      <c r="B75">
+        <v>74</v>
+      </c>
+      <c r="C75">
+        <v>92.22</v>
+      </c>
+      <c r="D75">
+        <v>0.1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>0</v>
+      </c>
+      <c r="B76">
+        <v>75</v>
+      </c>
+      <c r="C76">
+        <v>106.59</v>
+      </c>
+      <c r="D76">
+        <v>0.1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>0</v>
+      </c>
+      <c r="B77">
+        <v>76</v>
+      </c>
+      <c r="C77">
+        <v>116</v>
+      </c>
+      <c r="D77">
+        <v>0.1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>0</v>
+      </c>
+      <c r="B78">
+        <v>77</v>
+      </c>
+      <c r="C78">
+        <v>117.03</v>
+      </c>
+      <c r="D78">
+        <v>0.1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>0</v>
+      </c>
+      <c r="B79">
+        <v>78</v>
+      </c>
+      <c r="C79">
+        <v>136.79</v>
+      </c>
+      <c r="D79">
+        <v>0.1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>0</v>
+      </c>
+      <c r="B80">
+        <v>79</v>
+      </c>
+      <c r="C80">
+        <v>153.80000000000001</v>
+      </c>
+      <c r="D80">
+        <v>0.1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>0</v>
+      </c>
+      <c r="B81">
+        <v>80</v>
+      </c>
+      <c r="C81">
+        <v>158.80000000000001</v>
+      </c>
+      <c r="D81">
+        <v>0.1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B82">
+        <v>81</v>
+      </c>
+      <c r="C82">
+        <v>133.29</v>
+      </c>
+      <c r="D82">
+        <v>0.1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83">
+        <v>82</v>
+      </c>
+      <c r="C83">
+        <v>111</v>
+      </c>
+      <c r="D83">
+        <v>0.1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>0</v>
+      </c>
+      <c r="B84">
+        <v>83</v>
+      </c>
+      <c r="C84">
+        <v>111</v>
+      </c>
+      <c r="D84">
+        <v>0.1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>0</v>
+      </c>
+      <c r="B85">
+        <v>84</v>
+      </c>
+      <c r="C85">
+        <v>107.02</v>
+      </c>
+      <c r="D85">
+        <v>0.1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B86">
+        <v>85</v>
+      </c>
+      <c r="C86">
+        <v>114.37</v>
+      </c>
+      <c r="D86">
+        <v>0.1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>0</v>
+      </c>
+      <c r="B87">
+        <v>86</v>
+      </c>
+      <c r="C87">
+        <v>106</v>
+      </c>
+      <c r="D87">
+        <v>0.1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>0</v>
+      </c>
+      <c r="B88">
+        <v>87</v>
+      </c>
+      <c r="C88">
+        <v>85.92</v>
+      </c>
+      <c r="D88">
+        <v>0.1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>0</v>
+      </c>
+      <c r="B89">
+        <v>88</v>
+      </c>
+      <c r="C89">
+        <v>80.36</v>
+      </c>
+      <c r="D89">
+        <v>0.1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>0</v>
+      </c>
+      <c r="B90">
+        <v>89</v>
+      </c>
+      <c r="C90">
+        <v>91</v>
+      </c>
+      <c r="D90">
+        <v>0.1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>0</v>
+      </c>
+      <c r="B91">
+        <v>90</v>
+      </c>
+      <c r="C91">
+        <v>91</v>
+      </c>
+      <c r="D91">
+        <v>0.1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>0</v>
+      </c>
+      <c r="B92">
+        <v>91</v>
+      </c>
+      <c r="C92">
+        <v>86.82</v>
+      </c>
+      <c r="D92">
+        <v>0.1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>0</v>
+      </c>
+      <c r="B93">
+        <v>92</v>
+      </c>
+      <c r="C93">
+        <v>85.94</v>
+      </c>
+      <c r="D93">
+        <v>0.1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>0</v>
+      </c>
+      <c r="B94">
         <v>93</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.3</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="C94">
+        <v>96</v>
+      </c>
+      <c r="D94">
+        <v>0.1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>0</v>
+      </c>
+      <c r="B95">
+        <v>94</v>
+      </c>
+      <c r="C95">
+        <v>92</v>
+      </c>
+      <c r="D95">
+        <v>0.1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>0</v>
+      </c>
+      <c r="B96">
+        <v>95</v>
+      </c>
+      <c r="C96">
+        <v>85.96</v>
+      </c>
+      <c r="D96">
+        <v>0.1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>0</v>
+      </c>
+      <c r="B97">
+        <v>96</v>
+      </c>
+      <c r="C97">
+        <v>82.74</v>
+      </c>
+      <c r="D97">
+        <v>0.1</v>
+      </c>
+      <c r="E97" t="s">
         <v>6</v>
       </c>
     </row>
@@ -749,10 +3758,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6601A55-F1BD-4C2E-B812-3C4C9BA0251C}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,91 +3790,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>73</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>0.1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>74</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
-      <c r="D3">
-        <v>0.1</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>75</v>
-      </c>
-      <c r="C4">
-        <v>10</v>
-      </c>
-      <c r="D4">
-        <v>0.1</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>76</v>
-      </c>
-      <c r="C5">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>0.1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>77</v>
-      </c>
-      <c r="C6">
-        <v>10</v>
-      </c>
-      <c r="D6">
-        <v>0.1</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -873,10 +3797,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0DA1F9C-A66D-48EA-A716-1BAA74B12C23}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="A2" sqref="A2:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,91 +3828,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>80</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="D2">
-        <v>0.2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>81</v>
-      </c>
-      <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>0.2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>82</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>0.2</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>83</v>
-      </c>
-      <c r="C5">
-        <v>2</v>
-      </c>
-      <c r="D5">
-        <v>0.2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>84</v>
-      </c>
-      <c r="C6">
-        <v>2</v>
-      </c>
-      <c r="D6">
-        <v>0.2</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -996,10 +3835,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8B3DBAA-2D8A-403D-904C-D9E08E94172A}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1027,91 +3866,6 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>89</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0.3</v>
-      </c>
-      <c r="E2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3">
-        <v>0.3</v>
-      </c>
-      <c r="E3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4">
-        <v>91</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0.3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5">
-        <v>92</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0.3</v>
-      </c>
-      <c r="E5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B6">
-        <v>93</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0.3</v>
-      </c>
-      <c r="E6" t="s">
-        <v>6</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
